--- a/Stata_Einführung_BIBB/Rohdaten.xlsx
+++ b/Stata_Einführung_BIBB/Rohdaten.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
   </si>
 </sst>
 </file>
@@ -93,22 +96,28 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -116,16 +125,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.0</v>
+        <v>-9.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>-9.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -133,16 +145,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>-4.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5">
@@ -150,16 +165,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0</v>
+        <v>-4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.0</v>
+        <v>-9.0</v>
       </c>
       <c r="D5" t="n">
         <v>-9.0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -167,16 +185,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>2.0</v>
+        <v>-4.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-9.0</v>
+        <v>-4.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n">
         <v>2.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -187,13 +208,16 @@
         <v>-4.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>-9.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-9.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -201,16 +225,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0</v>
+        <v>-4.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>-4.0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -218,7 +245,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" t="n">
         <v>-9.0</v>
@@ -228,6 +255,9 @@
       </c>
       <c r="E9" t="n">
         <v>4.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -235,16 +265,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.0</v>
+        <v>-9.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.0</v>
+        <v>-9.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -255,13 +288,16 @@
         <v>-4.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>-4.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -269,16 +305,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>-4.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="F12" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13">
@@ -286,16 +325,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2.0</v>
+        <v>-4.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" t="n">
         <v>-9.0</v>
       </c>
       <c r="E13" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -303,16 +345,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-9.0</v>
+        <v>-4.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-9.0</v>
+        <v>1.0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -320,7 +365,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>2.0</v>
+        <v>-4.0</v>
       </c>
       <c r="C15" t="n">
         <v>-4.0</v>
@@ -329,7 +374,10 @@
         <v>-9.0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
@@ -337,16 +385,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" t="n">
         <v>-9.0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
